--- a/TryGeneric.xlsx
+++ b/TryGeneric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAD3A8-74E0-456D-89FA-B0E70E176D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ED9721-295D-4A40-A238-87A928F59C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,10 +208,10 @@
     <t>Log out Link Should Be Clicked</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
     <t>Not needed</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,10 +679,10 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
         <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
